--- a/Class_Info/class_info_final.xlsx
+++ b/Class_Info/class_info_final.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10112"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ifraz-re/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunadatsubasa/Desktop/PBL_SE_team/Class_Info/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46955A5-E477-1B4F-A3C5-AD94DA4E3A35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16480" yWindow="0" windowWidth="17120" windowHeight="21000" tabRatio="500"/>
+    <workbookView xWindow="8480" yWindow="460" windowWidth="17120" windowHeight="14300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1016,12 +1017,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1029,12 +1030,14 @@
       <sz val="14"/>
       <color rgb="FF333333"/>
       <name val="游ゴシック Medium"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF009999"/>
       <name val="游ゴシック Medium"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1042,14 +1045,22 @@
       <sz val="14"/>
       <color rgb="FF333333"/>
       <name val="游ゴシック Medium"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1095,14 +1106,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1370,21 +1384,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N178"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C181" sqref="C181"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="C179" sqref="C179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="60.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>177</v>
       </c>
@@ -1395,7 +1409,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="24">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1416,7 +1430,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="24" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -1437,7 +1451,7 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="24" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
@@ -1458,7 +1472,7 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="24">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1479,7 +1493,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="24" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
@@ -1500,7 +1514,7 @@
       <c r="M6" s="8"/>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="24">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1521,7 +1535,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="24">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1542,7 +1556,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="24">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1563,7 +1577,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="24">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1584,7 +1598,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="24">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1605,7 +1619,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="24">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1626,7 +1640,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="24">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1647,7 +1661,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="24">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1668,7 +1682,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="24">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1689,7 +1703,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="24">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1710,7 +1724,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="24">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1731,7 +1745,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="24" customHeight="1">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
@@ -1752,7 +1766,7 @@
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="24">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1773,7 +1787,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="24">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1794,7 +1808,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="24">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1815,7 +1829,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="24">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1836,7 +1850,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="24">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1857,7 +1871,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" ht="24">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1876,7 +1890,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="24">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1895,17 +1909,17 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="24">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="24">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="24">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1926,7 +1940,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="24">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1947,7 +1961,7 @@
       <c r="M29" s="2"/>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="24">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1968,7 +1982,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="3"/>
     </row>
-    <row r="31" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" ht="24">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1989,7 +2003,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="24">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -2010,7 +2024,7 @@
       <c r="M32" s="2"/>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" ht="24">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -2031,7 +2045,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="3"/>
     </row>
-    <row r="34" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" ht="24">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -2052,12 +2066,12 @@
       <c r="M34" s="2"/>
       <c r="N34" s="3"/>
     </row>
-    <row r="35" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" ht="24">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="24" customHeight="1">
       <c r="A36" s="10" t="s">
         <v>34</v>
       </c>
@@ -2078,7 +2092,7 @@
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
     </row>
-    <row r="37" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" ht="24" customHeight="1">
       <c r="A37" s="10" t="s">
         <v>35</v>
       </c>
@@ -2099,7 +2113,7 @@
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
     </row>
-    <row r="38" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" ht="24" customHeight="1">
       <c r="A38" s="10" t="s">
         <v>36</v>
       </c>
@@ -2120,7 +2134,7 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
     </row>
-    <row r="39" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" ht="24" customHeight="1">
       <c r="A39" s="10" t="s">
         <v>37</v>
       </c>
@@ -2141,7 +2155,7 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
     </row>
-    <row r="40" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" ht="24" customHeight="1">
       <c r="A40" s="10" t="s">
         <v>38</v>
       </c>
@@ -2162,7 +2176,7 @@
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
     </row>
-    <row r="41" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" ht="24" customHeight="1">
       <c r="A41" s="10" t="s">
         <v>39</v>
       </c>
@@ -2183,7 +2197,7 @@
       <c r="M41" s="8"/>
       <c r="N41" s="9"/>
     </row>
-    <row r="42" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" ht="24" customHeight="1">
       <c r="A42" s="10" t="s">
         <v>40</v>
       </c>
@@ -2204,7 +2218,7 @@
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
     </row>
-    <row r="43" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" ht="24" customHeight="1">
       <c r="A43" s="10" t="s">
         <v>41</v>
       </c>
@@ -2225,7 +2239,7 @@
       <c r="M43" s="8"/>
       <c r="N43" s="9"/>
     </row>
-    <row r="44" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" ht="24" customHeight="1">
       <c r="A44" s="10" t="s">
         <v>42</v>
       </c>
@@ -2246,7 +2260,7 @@
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
     </row>
-    <row r="45" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" ht="24" customHeight="1">
       <c r="A45" s="10" t="s">
         <v>43</v>
       </c>
@@ -2267,7 +2281,7 @@
       <c r="M45" s="8"/>
       <c r="N45" s="9"/>
     </row>
-    <row r="46" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" ht="24">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -2288,7 +2302,7 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" ht="24">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -2309,7 +2323,7 @@
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
     </row>
-    <row r="48" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" ht="24">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -2330,7 +2344,7 @@
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
     </row>
-    <row r="49" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" ht="24">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -2351,7 +2365,7 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" ht="24" customHeight="1">
       <c r="A50" s="10" t="s">
         <v>48</v>
       </c>
@@ -2372,7 +2386,7 @@
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
     </row>
-    <row r="51" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" ht="24" customHeight="1">
       <c r="A51" s="10" t="s">
         <v>49</v>
       </c>
@@ -2393,7 +2407,7 @@
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
     </row>
-    <row r="52" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" ht="24" customHeight="1">
       <c r="A52" s="10" t="s">
         <v>50</v>
       </c>
@@ -2414,7 +2428,7 @@
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
     </row>
-    <row r="53" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" ht="24">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -2435,7 +2449,7 @@
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" ht="24">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -2456,7 +2470,7 @@
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" ht="24" customHeight="1">
       <c r="A55" s="10" t="s">
         <v>53</v>
       </c>
@@ -2477,7 +2491,7 @@
       <c r="M55" s="8"/>
       <c r="N55" s="9"/>
     </row>
-    <row r="56" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" ht="24">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -2498,7 +2512,7 @@
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
     </row>
-    <row r="57" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" ht="24">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -2519,7 +2533,7 @@
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
     </row>
-    <row r="58" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" ht="24">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -2540,7 +2554,7 @@
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" ht="24">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -2561,7 +2575,7 @@
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" ht="24">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -2582,7 +2596,7 @@
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
     </row>
-    <row r="61" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" ht="24">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
@@ -2603,7 +2617,7 @@
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
     </row>
-    <row r="62" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" ht="24">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
@@ -2624,7 +2638,7 @@
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
     </row>
-    <row r="63" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" ht="24">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
@@ -2645,7 +2659,7 @@
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
     </row>
-    <row r="64" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" ht="24">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
@@ -2666,7 +2680,7 @@
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
     </row>
-    <row r="65" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" ht="24">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
@@ -2687,12 +2701,12 @@
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
     </row>
-    <row r="66" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" ht="24">
       <c r="A66" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" ht="24" customHeight="1">
       <c r="A67" s="10" t="s">
         <v>65</v>
       </c>
@@ -2713,7 +2727,7 @@
       <c r="M67" s="8"/>
       <c r="N67" s="9"/>
     </row>
-    <row r="68" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" ht="24" customHeight="1">
       <c r="A68" s="10" t="s">
         <v>66</v>
       </c>
@@ -2734,7 +2748,7 @@
       <c r="M68" s="8"/>
       <c r="N68" s="8"/>
     </row>
-    <row r="69" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" ht="24" customHeight="1">
       <c r="A69" s="10" t="s">
         <v>67</v>
       </c>
@@ -2755,7 +2769,7 @@
       <c r="M69" s="8"/>
       <c r="N69" s="8"/>
     </row>
-    <row r="70" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" ht="24" customHeight="1">
       <c r="A70" s="10" t="s">
         <v>68</v>
       </c>
@@ -2776,7 +2790,7 @@
       <c r="M70" s="8"/>
       <c r="N70" s="9"/>
     </row>
-    <row r="71" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" ht="24" customHeight="1">
       <c r="A71" s="10" t="s">
         <v>69</v>
       </c>
@@ -2797,7 +2811,7 @@
       <c r="M71" s="8"/>
       <c r="N71" s="9"/>
     </row>
-    <row r="72" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" ht="24" customHeight="1">
       <c r="A72" s="10" t="s">
         <v>70</v>
       </c>
@@ -2818,7 +2832,7 @@
       <c r="M72" s="8"/>
       <c r="N72" s="8"/>
     </row>
-    <row r="73" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" ht="24" customHeight="1">
       <c r="A73" s="10" t="s">
         <v>71</v>
       </c>
@@ -2839,7 +2853,7 @@
       <c r="M73" s="8"/>
       <c r="N73" s="9"/>
     </row>
-    <row r="74" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" ht="24" customHeight="1">
       <c r="A74" s="10" t="s">
         <v>72</v>
       </c>
@@ -2860,7 +2874,7 @@
       <c r="M74" s="8"/>
       <c r="N74" s="8"/>
     </row>
-    <row r="75" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" ht="24" customHeight="1">
       <c r="A75" s="10" t="s">
         <v>73</v>
       </c>
@@ -2881,7 +2895,7 @@
       <c r="M75" s="8"/>
       <c r="N75" s="9"/>
     </row>
-    <row r="76" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" ht="24" customHeight="1">
       <c r="A76" s="10" t="s">
         <v>74</v>
       </c>
@@ -2902,7 +2916,7 @@
       <c r="M76" s="8"/>
       <c r="N76" s="8"/>
     </row>
-    <row r="77" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" ht="24" customHeight="1">
       <c r="A77" s="10" t="s">
         <v>75</v>
       </c>
@@ -2923,7 +2937,7 @@
       <c r="M77" s="8"/>
       <c r="N77" s="9"/>
     </row>
-    <row r="78" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" ht="24" customHeight="1">
       <c r="A78" s="10" t="s">
         <v>76</v>
       </c>
@@ -2944,7 +2958,7 @@
       <c r="M78" s="8"/>
       <c r="N78" s="8"/>
     </row>
-    <row r="79" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" ht="24" customHeight="1">
       <c r="A79" s="10" t="s">
         <v>77</v>
       </c>
@@ -2965,7 +2979,7 @@
       <c r="M79" s="8"/>
       <c r="N79" s="9"/>
     </row>
-    <row r="80" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" ht="24" customHeight="1">
       <c r="A80" s="10" t="s">
         <v>78</v>
       </c>
@@ -2986,7 +3000,7 @@
       <c r="M80" s="8"/>
       <c r="N80" s="8"/>
     </row>
-    <row r="81" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" ht="24" customHeight="1">
       <c r="A81" s="10" t="s">
         <v>79</v>
       </c>
@@ -3007,7 +3021,7 @@
       <c r="M81" s="8"/>
       <c r="N81" s="8"/>
     </row>
-    <row r="82" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" ht="24" customHeight="1">
       <c r="A82" s="10" t="s">
         <v>80</v>
       </c>
@@ -3028,7 +3042,7 @@
       <c r="M82" s="8"/>
       <c r="N82" s="9"/>
     </row>
-    <row r="83" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" ht="24" customHeight="1">
       <c r="A83" s="10" t="s">
         <v>81</v>
       </c>
@@ -3049,7 +3063,7 @@
       <c r="M83" s="8"/>
       <c r="N83" s="9"/>
     </row>
-    <row r="84" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" ht="24" customHeight="1">
       <c r="A84" s="10" t="s">
         <v>82</v>
       </c>
@@ -3070,7 +3084,7 @@
       <c r="M84" s="8"/>
       <c r="N84" s="8"/>
     </row>
-    <row r="85" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" ht="24" customHeight="1">
       <c r="A85" s="10" t="s">
         <v>83</v>
       </c>
@@ -3091,7 +3105,7 @@
       <c r="M85" s="8"/>
       <c r="N85" s="8"/>
     </row>
-    <row r="86" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" ht="24" customHeight="1">
       <c r="A86" s="10" t="s">
         <v>84</v>
       </c>
@@ -3112,7 +3126,7 @@
       <c r="M86" s="8"/>
       <c r="N86" s="9"/>
     </row>
-    <row r="87" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" ht="24" customHeight="1">
       <c r="A87" s="10" t="s">
         <v>85</v>
       </c>
@@ -3133,7 +3147,7 @@
       <c r="M87" s="8"/>
       <c r="N87" s="8"/>
     </row>
-    <row r="88" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" ht="24" customHeight="1">
       <c r="A88" s="10" t="s">
         <v>86</v>
       </c>
@@ -3154,7 +3168,7 @@
       <c r="M88" s="8"/>
       <c r="N88" s="9"/>
     </row>
-    <row r="89" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" ht="24" customHeight="1">
       <c r="A89" s="10" t="s">
         <v>87</v>
       </c>
@@ -3175,7 +3189,7 @@
       <c r="M89" s="8"/>
       <c r="N89" s="8"/>
     </row>
-    <row r="90" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" ht="24" customHeight="1">
       <c r="A90" s="10" t="s">
         <v>88</v>
       </c>
@@ -3196,7 +3210,7 @@
       <c r="M90" s="8"/>
       <c r="N90" s="9"/>
     </row>
-    <row r="91" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" ht="24" customHeight="1">
       <c r="A91" s="10" t="s">
         <v>89</v>
       </c>
@@ -3217,7 +3231,7 @@
       <c r="M91" s="8"/>
       <c r="N91" s="9"/>
     </row>
-    <row r="92" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" ht="24" customHeight="1">
       <c r="A92" s="10" t="s">
         <v>90</v>
       </c>
@@ -3238,7 +3252,7 @@
       <c r="M92" s="8"/>
       <c r="N92" s="9"/>
     </row>
-    <row r="93" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" ht="24" customHeight="1">
       <c r="A93" s="10" t="s">
         <v>91</v>
       </c>
@@ -3259,7 +3273,7 @@
       <c r="M93" s="8"/>
       <c r="N93" s="8"/>
     </row>
-    <row r="94" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" ht="24" customHeight="1">
       <c r="A94" s="10" t="s">
         <v>92</v>
       </c>
@@ -3280,7 +3294,7 @@
       <c r="M94" s="8"/>
       <c r="N94" s="9"/>
     </row>
-    <row r="95" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" ht="24" customHeight="1">
       <c r="A95" s="10" t="s">
         <v>93</v>
       </c>
@@ -3301,7 +3315,7 @@
       <c r="M95" s="8"/>
       <c r="N95" s="9"/>
     </row>
-    <row r="96" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" ht="24">
       <c r="A96" s="2" t="s">
         <v>94</v>
       </c>
@@ -3312,7 +3326,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" ht="24">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
@@ -3333,7 +3347,7 @@
       <c r="M97" s="2"/>
       <c r="N97" s="3"/>
     </row>
-    <row r="98" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" ht="24">
       <c r="A98" s="2" t="s">
         <v>96</v>
       </c>
@@ -3344,7 +3358,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" ht="24">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
@@ -3365,7 +3379,7 @@
       <c r="M99" s="2"/>
       <c r="N99" s="3"/>
     </row>
-    <row r="100" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" ht="24" customHeight="1">
       <c r="A100" s="10" t="s">
         <v>98</v>
       </c>
@@ -3386,7 +3400,7 @@
       <c r="M100" s="8"/>
       <c r="N100" s="8"/>
     </row>
-    <row r="101" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" ht="24" customHeight="1">
       <c r="A101" s="10" t="s">
         <v>99</v>
       </c>
@@ -3407,7 +3421,7 @@
       <c r="M101" s="8"/>
       <c r="N101" s="9"/>
     </row>
-    <row r="102" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" ht="24" customHeight="1">
       <c r="A102" s="10" t="s">
         <v>100</v>
       </c>
@@ -3428,7 +3442,7 @@
       <c r="M102" s="8"/>
       <c r="N102" s="8"/>
     </row>
-    <row r="103" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" ht="24" customHeight="1">
       <c r="A103" s="10" t="s">
         <v>101</v>
       </c>
@@ -3449,7 +3463,7 @@
       <c r="M103" s="8"/>
       <c r="N103" s="9"/>
     </row>
-    <row r="104" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" ht="24" customHeight="1">
       <c r="A104" s="10" t="s">
         <v>102</v>
       </c>
@@ -3470,7 +3484,7 @@
       <c r="M104" s="8"/>
       <c r="N104" s="8"/>
     </row>
-    <row r="105" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" ht="24" customHeight="1">
       <c r="A105" s="10" t="s">
         <v>103</v>
       </c>
@@ -3491,7 +3505,7 @@
       <c r="M105" s="8"/>
       <c r="N105" s="8"/>
     </row>
-    <row r="106" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" ht="24" customHeight="1">
       <c r="A106" s="10" t="s">
         <v>104</v>
       </c>
@@ -3512,7 +3526,7 @@
       <c r="M106" s="8"/>
       <c r="N106" s="9"/>
     </row>
-    <row r="107" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" ht="24" customHeight="1">
       <c r="A107" s="10" t="s">
         <v>105</v>
       </c>
@@ -3533,7 +3547,7 @@
       <c r="M107" s="8"/>
       <c r="N107" s="8"/>
     </row>
-    <row r="108" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" ht="24" customHeight="1">
       <c r="A108" s="10" t="s">
         <v>106</v>
       </c>
@@ -3554,7 +3568,7 @@
       <c r="M108" s="8"/>
       <c r="N108" s="8"/>
     </row>
-    <row r="109" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" ht="24">
       <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
@@ -3575,7 +3589,7 @@
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
     </row>
-    <row r="110" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" ht="24">
       <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
@@ -3596,7 +3610,7 @@
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
     </row>
-    <row r="111" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" ht="24">
       <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
@@ -3617,7 +3631,7 @@
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
     </row>
-    <row r="112" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" ht="24">
       <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
@@ -3638,7 +3652,7 @@
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
     </row>
-    <row r="113" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" ht="24">
       <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
@@ -3659,7 +3673,7 @@
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
     </row>
-    <row r="114" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" ht="24" customHeight="1">
       <c r="A114" s="10" t="s">
         <v>112</v>
       </c>
@@ -3680,7 +3694,7 @@
       <c r="M114" s="8"/>
       <c r="N114" s="8"/>
     </row>
-    <row r="115" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" ht="24" customHeight="1">
       <c r="A115" s="10" t="s">
         <v>113</v>
       </c>
@@ -3701,7 +3715,7 @@
       <c r="M115" s="8"/>
       <c r="N115" s="8"/>
     </row>
-    <row r="116" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" ht="24">
       <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
@@ -3722,7 +3736,7 @@
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
     </row>
-    <row r="117" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" ht="24">
       <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
@@ -3743,7 +3757,7 @@
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
     </row>
-    <row r="118" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" ht="24" customHeight="1">
       <c r="A118" s="10" t="s">
         <v>116</v>
       </c>
@@ -3764,7 +3778,7 @@
       <c r="M118" s="8"/>
       <c r="N118" s="8"/>
     </row>
-    <row r="119" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" ht="24" customHeight="1">
       <c r="A119" s="10" t="s">
         <v>117</v>
       </c>
@@ -3785,7 +3799,7 @@
       <c r="M119" s="8"/>
       <c r="N119" s="8"/>
     </row>
-    <row r="120" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" ht="24" customHeight="1">
       <c r="A120" s="10" t="s">
         <v>118</v>
       </c>
@@ -3806,7 +3820,7 @@
       <c r="M120" s="8"/>
       <c r="N120" s="8"/>
     </row>
-    <row r="121" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" ht="24" customHeight="1">
       <c r="A121" s="10" t="s">
         <v>119</v>
       </c>
@@ -3827,7 +3841,7 @@
       <c r="M121" s="8"/>
       <c r="N121" s="9"/>
     </row>
-    <row r="122" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" ht="24">
       <c r="A122" s="1" t="s">
         <v>120</v>
       </c>
@@ -3848,7 +3862,7 @@
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
     </row>
-    <row r="123" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" ht="24" customHeight="1">
       <c r="A123" s="10" t="s">
         <v>121</v>
       </c>
@@ -3869,7 +3883,7 @@
       <c r="M123" s="8"/>
       <c r="N123" s="8"/>
     </row>
-    <row r="124" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" ht="24">
       <c r="A124" s="1" t="s">
         <v>122</v>
       </c>
@@ -3890,7 +3904,7 @@
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
     </row>
-    <row r="125" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" ht="24">
       <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
@@ -3911,7 +3925,7 @@
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
     </row>
-    <row r="126" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" ht="24" customHeight="1">
       <c r="A126" s="10" t="s">
         <v>124</v>
       </c>
@@ -3932,7 +3946,7 @@
       <c r="M126" s="8"/>
       <c r="N126" s="8"/>
     </row>
-    <row r="127" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" ht="24" customHeight="1">
       <c r="A127" s="10" t="s">
         <v>125</v>
       </c>
@@ -3953,7 +3967,7 @@
       <c r="M127" s="8"/>
       <c r="N127" s="8"/>
     </row>
-    <row r="128" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" ht="24" customHeight="1">
       <c r="A128" s="10" t="s">
         <v>126</v>
       </c>
@@ -3974,7 +3988,7 @@
       <c r="M128" s="8"/>
       <c r="N128" s="8"/>
     </row>
-    <row r="129" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" ht="24" customHeight="1">
       <c r="A129" s="10" t="s">
         <v>127</v>
       </c>
@@ -3995,7 +4009,7 @@
       <c r="M129" s="8"/>
       <c r="N129" s="8"/>
     </row>
-    <row r="130" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" ht="24" customHeight="1">
       <c r="A130" s="10" t="s">
         <v>128</v>
       </c>
@@ -4016,7 +4030,7 @@
       <c r="M130" s="8"/>
       <c r="N130" s="8"/>
     </row>
-    <row r="131" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" ht="24" customHeight="1">
       <c r="A131" s="10" t="s">
         <v>129</v>
       </c>
@@ -4037,7 +4051,7 @@
       <c r="M131" s="8"/>
       <c r="N131" s="8"/>
     </row>
-    <row r="132" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" ht="24">
       <c r="A132" s="1" t="s">
         <v>130</v>
       </c>
@@ -4058,7 +4072,7 @@
       <c r="M132" s="2"/>
       <c r="N132" s="3"/>
     </row>
-    <row r="133" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" ht="24">
       <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
@@ -4079,7 +4093,7 @@
       <c r="M133" s="2"/>
       <c r="N133" s="3"/>
     </row>
-    <row r="134" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" ht="24" customHeight="1">
       <c r="A134" s="10" t="s">
         <v>132</v>
       </c>
@@ -4100,7 +4114,7 @@
       <c r="M134" s="8"/>
       <c r="N134" s="9"/>
     </row>
-    <row r="135" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" ht="24" customHeight="1">
       <c r="A135" s="10" t="s">
         <v>133</v>
       </c>
@@ -4121,7 +4135,7 @@
       <c r="M135" s="8"/>
       <c r="N135" s="9"/>
     </row>
-    <row r="136" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" ht="24" customHeight="1">
       <c r="A136" s="10" t="s">
         <v>134</v>
       </c>
@@ -4142,7 +4156,7 @@
       <c r="M136" s="8"/>
       <c r="N136" s="9"/>
     </row>
-    <row r="137" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" ht="24">
       <c r="A137" s="1" t="s">
         <v>135</v>
       </c>
@@ -4163,7 +4177,7 @@
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
     </row>
-    <row r="138" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" ht="24">
       <c r="A138" s="1" t="s">
         <v>136</v>
       </c>
@@ -4184,7 +4198,7 @@
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
     </row>
-    <row r="139" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" ht="24">
       <c r="A139" s="1" t="s">
         <v>137</v>
       </c>
@@ -4205,7 +4219,7 @@
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
     </row>
-    <row r="140" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" ht="24">
       <c r="A140" s="1" t="s">
         <v>138</v>
       </c>
@@ -4226,7 +4240,7 @@
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
     </row>
-    <row r="141" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" ht="24">
       <c r="A141" s="1" t="s">
         <v>139</v>
       </c>
@@ -4247,7 +4261,7 @@
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
     </row>
-    <row r="142" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" ht="24">
       <c r="A142" s="1" t="s">
         <v>140</v>
       </c>
@@ -4268,7 +4282,7 @@
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
     </row>
-    <row r="143" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" ht="24">
       <c r="A143" s="1" t="s">
         <v>141</v>
       </c>
@@ -4289,7 +4303,7 @@
       <c r="M143" s="2"/>
       <c r="N143" s="3"/>
     </row>
-    <row r="144" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" ht="24">
       <c r="A144" s="1" t="s">
         <v>142</v>
       </c>
@@ -4310,7 +4324,7 @@
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
     </row>
-    <row r="145" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:14" ht="24">
       <c r="A145" s="1" t="s">
         <v>143</v>
       </c>
@@ -4331,7 +4345,7 @@
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
     </row>
-    <row r="146" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:14" ht="24">
       <c r="A146" s="1" t="s">
         <v>144</v>
       </c>
@@ -4352,7 +4366,7 @@
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
     </row>
-    <row r="147" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:14" ht="24">
       <c r="A147" s="1" t="s">
         <v>145</v>
       </c>
@@ -4373,7 +4387,7 @@
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
     </row>
-    <row r="148" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:14" ht="24">
       <c r="A148" s="1" t="s">
         <v>146</v>
       </c>
@@ -4394,7 +4408,7 @@
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
     </row>
-    <row r="149" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:14" ht="24" customHeight="1">
       <c r="A149" s="10" t="s">
         <v>147</v>
       </c>
@@ -4415,7 +4429,7 @@
       <c r="M149" s="8"/>
       <c r="N149" s="8"/>
     </row>
-    <row r="150" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:14" ht="24" customHeight="1">
       <c r="A150" s="10" t="s">
         <v>148</v>
       </c>
@@ -4436,7 +4450,7 @@
       <c r="M150" s="8"/>
       <c r="N150" s="9"/>
     </row>
-    <row r="151" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:14" ht="24" customHeight="1">
       <c r="A151" s="10" t="s">
         <v>149</v>
       </c>
@@ -4457,7 +4471,7 @@
       <c r="M151" s="8"/>
       <c r="N151" s="9"/>
     </row>
-    <row r="152" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:14" ht="24" customHeight="1">
       <c r="A152" s="10" t="s">
         <v>150</v>
       </c>
@@ -4478,7 +4492,7 @@
       <c r="M152" s="8"/>
       <c r="N152" s="8"/>
     </row>
-    <row r="153" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:14" ht="24" customHeight="1">
       <c r="A153" s="10" t="s">
         <v>151</v>
       </c>
@@ -4499,7 +4513,7 @@
       <c r="M153" s="8"/>
       <c r="N153" s="8"/>
     </row>
-    <row r="154" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:14" ht="24">
       <c r="A154" s="1" t="s">
         <v>152</v>
       </c>
@@ -4520,13 +4534,13 @@
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
     </row>
-    <row r="155" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:14" ht="24">
       <c r="A155" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C155" s="7"/>
     </row>
-    <row r="156" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:14" ht="24" customHeight="1">
       <c r="A156" s="10" t="s">
         <v>154</v>
       </c>
@@ -4547,7 +4561,7 @@
       <c r="M156" s="8"/>
       <c r="N156" s="9"/>
     </row>
-    <row r="157" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:14" ht="24" customHeight="1">
       <c r="A157" s="10" t="s">
         <v>155</v>
       </c>
@@ -4568,7 +4582,7 @@
       <c r="M157" s="8"/>
       <c r="N157" s="9"/>
     </row>
-    <row r="158" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:14" ht="24" customHeight="1">
       <c r="A158" s="10" t="s">
         <v>156</v>
       </c>
@@ -4589,7 +4603,7 @@
       <c r="M158" s="8"/>
       <c r="N158" s="9"/>
     </row>
-    <row r="159" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:14" ht="24" customHeight="1">
       <c r="A159" s="10" t="s">
         <v>157</v>
       </c>
@@ -4610,7 +4624,7 @@
       <c r="M159" s="8"/>
       <c r="N159" s="9"/>
     </row>
-    <row r="160" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:14" ht="24" customHeight="1">
       <c r="A160" s="10" t="s">
         <v>158</v>
       </c>
@@ -4631,7 +4645,7 @@
       <c r="M160" s="8"/>
       <c r="N160" s="9"/>
     </row>
-    <row r="161" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:14" ht="24" customHeight="1">
       <c r="A161" s="10" t="s">
         <v>159</v>
       </c>
@@ -4652,7 +4666,7 @@
       <c r="M161" s="8"/>
       <c r="N161" s="9"/>
     </row>
-    <row r="162" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:14" ht="24" customHeight="1">
       <c r="A162" s="10" t="s">
         <v>160</v>
       </c>
@@ -4673,7 +4687,7 @@
       <c r="M162" s="8"/>
       <c r="N162" s="9"/>
     </row>
-    <row r="163" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:14" ht="24" customHeight="1">
       <c r="A163" s="10" t="s">
         <v>161</v>
       </c>
@@ -4694,7 +4708,7 @@
       <c r="M163" s="8"/>
       <c r="N163" s="9"/>
     </row>
-    <row r="164" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:14" ht="24" customHeight="1">
       <c r="A164" s="10" t="s">
         <v>162</v>
       </c>
@@ -4715,7 +4729,7 @@
       <c r="M164" s="8"/>
       <c r="N164" s="9"/>
     </row>
-    <row r="165" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:14" ht="24" customHeight="1">
       <c r="A165" s="10" t="s">
         <v>163</v>
       </c>
@@ -4736,7 +4750,7 @@
       <c r="M165" s="8"/>
       <c r="N165" s="9"/>
     </row>
-    <row r="166" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:14" ht="24" customHeight="1">
       <c r="A166" s="10" t="s">
         <v>164</v>
       </c>
@@ -4757,7 +4771,7 @@
       <c r="M166" s="8"/>
       <c r="N166" s="9"/>
     </row>
-    <row r="167" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:14" ht="24" customHeight="1">
       <c r="A167" s="10" t="s">
         <v>165</v>
       </c>
@@ -4778,7 +4792,7 @@
       <c r="M167" s="8"/>
       <c r="N167" s="9"/>
     </row>
-    <row r="168" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:14" ht="24" customHeight="1">
       <c r="A168" s="10" t="s">
         <v>166</v>
       </c>
@@ -4799,7 +4813,7 @@
       <c r="M168" s="8"/>
       <c r="N168" s="9"/>
     </row>
-    <row r="169" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:14" ht="24" customHeight="1">
       <c r="A169" s="10" t="s">
         <v>167</v>
       </c>
@@ -4820,19 +4834,19 @@
       <c r="M169" s="8"/>
       <c r="N169" s="9"/>
     </row>
-    <row r="170" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:14" ht="24">
       <c r="A170" s="4" t="s">
         <v>168</v>
       </c>
       <c r="C170" s="7"/>
     </row>
-    <row r="171" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:14" ht="24">
       <c r="A171" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C171" s="7"/>
     </row>
-    <row r="172" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:14" ht="24">
       <c r="A172" s="1" t="s">
         <v>170</v>
       </c>
@@ -4853,7 +4867,7 @@
       <c r="M172" s="2"/>
       <c r="N172" s="3"/>
     </row>
-    <row r="173" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:14" ht="24">
       <c r="A173" s="1" t="s">
         <v>171</v>
       </c>
@@ -4874,7 +4888,7 @@
       <c r="M173" s="2"/>
       <c r="N173" s="3"/>
     </row>
-    <row r="174" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:14" ht="24">
       <c r="A174" s="1" t="s">
         <v>172</v>
       </c>
@@ -4895,7 +4909,7 @@
       <c r="M174" s="2"/>
       <c r="N174" s="3"/>
     </row>
-    <row r="175" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:14" ht="24">
       <c r="A175" s="1" t="s">
         <v>173</v>
       </c>
@@ -4916,7 +4930,7 @@
       <c r="M175" s="2"/>
       <c r="N175" s="3"/>
     </row>
-    <row r="176" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:14" ht="24">
       <c r="A176" s="1" t="s">
         <v>174</v>
       </c>
@@ -4937,7 +4951,7 @@
       <c r="M176" s="2"/>
       <c r="N176" s="3"/>
     </row>
-    <row r="177" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:14" ht="24">
       <c r="A177" s="1" t="s">
         <v>175</v>
       </c>
@@ -4958,7 +4972,7 @@
       <c r="M177" s="2"/>
       <c r="N177" s="3"/>
     </row>
-    <row r="178" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:14" ht="24">
       <c r="A178" s="1" t="s">
         <v>176</v>
       </c>
@@ -4979,176 +4993,180 @@
       <c r="M178" s="2"/>
       <c r="N178" s="3"/>
     </row>
+    <row r="179" spans="1:14" ht="24">
+      <c r="C179" s="8"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
-    <hyperlink ref="A9" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9"/>
-    <hyperlink ref="A11" r:id="rId10"/>
-    <hyperlink ref="A12" r:id="rId11"/>
-    <hyperlink ref="A13" r:id="rId12"/>
-    <hyperlink ref="A14" r:id="rId13"/>
-    <hyperlink ref="A15" r:id="rId14"/>
-    <hyperlink ref="A16" r:id="rId15"/>
-    <hyperlink ref="A17" r:id="rId16"/>
-    <hyperlink ref="A18" r:id="rId17"/>
-    <hyperlink ref="A19" r:id="rId18"/>
-    <hyperlink ref="A20" r:id="rId19"/>
-    <hyperlink ref="A21" r:id="rId20"/>
-    <hyperlink ref="A22" r:id="rId21"/>
-    <hyperlink ref="A23" r:id="rId22"/>
-    <hyperlink ref="A24" r:id="rId23"/>
-    <hyperlink ref="A25" r:id="rId24"/>
-    <hyperlink ref="A28" r:id="rId25"/>
-    <hyperlink ref="A29" r:id="rId26"/>
-    <hyperlink ref="A30" r:id="rId27"/>
-    <hyperlink ref="A31" r:id="rId28"/>
-    <hyperlink ref="A32" r:id="rId29"/>
-    <hyperlink ref="A33" r:id="rId30"/>
-    <hyperlink ref="A34" r:id="rId31"/>
-    <hyperlink ref="A36" r:id="rId32"/>
-    <hyperlink ref="A37" r:id="rId33"/>
-    <hyperlink ref="A38" r:id="rId34"/>
-    <hyperlink ref="A39" r:id="rId35"/>
-    <hyperlink ref="A40" r:id="rId36"/>
-    <hyperlink ref="A41" r:id="rId37"/>
-    <hyperlink ref="A42" r:id="rId38"/>
-    <hyperlink ref="A43" r:id="rId39"/>
-    <hyperlink ref="A44" r:id="rId40"/>
-    <hyperlink ref="A45" r:id="rId41"/>
-    <hyperlink ref="A46" r:id="rId42"/>
-    <hyperlink ref="A47" r:id="rId43"/>
-    <hyperlink ref="A48" r:id="rId44"/>
-    <hyperlink ref="A49" r:id="rId45"/>
-    <hyperlink ref="A50" r:id="rId46"/>
-    <hyperlink ref="A51" r:id="rId47"/>
-    <hyperlink ref="A52" r:id="rId48"/>
-    <hyperlink ref="A53" r:id="rId49"/>
-    <hyperlink ref="A54" r:id="rId50"/>
-    <hyperlink ref="A55" r:id="rId51"/>
-    <hyperlink ref="A56" r:id="rId52"/>
-    <hyperlink ref="A57" r:id="rId53"/>
-    <hyperlink ref="A58" r:id="rId54"/>
-    <hyperlink ref="A59" r:id="rId55"/>
-    <hyperlink ref="A60" r:id="rId56"/>
-    <hyperlink ref="A61" r:id="rId57"/>
-    <hyperlink ref="A62" r:id="rId58"/>
-    <hyperlink ref="A63" r:id="rId59"/>
-    <hyperlink ref="A64" r:id="rId60"/>
-    <hyperlink ref="A65" r:id="rId61"/>
-    <hyperlink ref="A67" r:id="rId62"/>
-    <hyperlink ref="A68" r:id="rId63"/>
-    <hyperlink ref="A69" r:id="rId64"/>
-    <hyperlink ref="A70" r:id="rId65"/>
-    <hyperlink ref="A71" r:id="rId66"/>
-    <hyperlink ref="A72" r:id="rId67"/>
-    <hyperlink ref="A73" r:id="rId68"/>
-    <hyperlink ref="A74" r:id="rId69"/>
-    <hyperlink ref="A75" r:id="rId70"/>
-    <hyperlink ref="A76" r:id="rId71"/>
-    <hyperlink ref="A77" r:id="rId72"/>
-    <hyperlink ref="A78" r:id="rId73"/>
-    <hyperlink ref="A79" r:id="rId74"/>
-    <hyperlink ref="A80" r:id="rId75"/>
-    <hyperlink ref="A81" r:id="rId76"/>
-    <hyperlink ref="A82" r:id="rId77"/>
-    <hyperlink ref="A83" r:id="rId78"/>
-    <hyperlink ref="A84" r:id="rId79"/>
-    <hyperlink ref="A85" r:id="rId80"/>
-    <hyperlink ref="A86" r:id="rId81"/>
-    <hyperlink ref="A87" r:id="rId82"/>
-    <hyperlink ref="A88" r:id="rId83"/>
-    <hyperlink ref="A89" r:id="rId84"/>
-    <hyperlink ref="A90" r:id="rId85"/>
-    <hyperlink ref="A91" r:id="rId86"/>
-    <hyperlink ref="A92" r:id="rId87"/>
-    <hyperlink ref="A93" r:id="rId88"/>
-    <hyperlink ref="A94" r:id="rId89"/>
-    <hyperlink ref="A95" r:id="rId90"/>
-    <hyperlink ref="A97" r:id="rId91"/>
-    <hyperlink ref="A99" r:id="rId92"/>
-    <hyperlink ref="A100" r:id="rId93"/>
-    <hyperlink ref="A101" r:id="rId94"/>
-    <hyperlink ref="A102" r:id="rId95"/>
-    <hyperlink ref="A103" r:id="rId96"/>
-    <hyperlink ref="A104" r:id="rId97"/>
-    <hyperlink ref="A105" r:id="rId98"/>
-    <hyperlink ref="A106" r:id="rId99"/>
-    <hyperlink ref="A107" r:id="rId100"/>
-    <hyperlink ref="A108" r:id="rId101"/>
-    <hyperlink ref="A109" r:id="rId102"/>
-    <hyperlink ref="A110" r:id="rId103"/>
-    <hyperlink ref="A111" r:id="rId104"/>
-    <hyperlink ref="A112" r:id="rId105"/>
-    <hyperlink ref="A113" r:id="rId106"/>
-    <hyperlink ref="A114" r:id="rId107"/>
-    <hyperlink ref="A115" r:id="rId108"/>
-    <hyperlink ref="A116" r:id="rId109"/>
-    <hyperlink ref="A117" r:id="rId110"/>
-    <hyperlink ref="A118" r:id="rId111"/>
-    <hyperlink ref="A119" r:id="rId112"/>
-    <hyperlink ref="A120" r:id="rId113"/>
-    <hyperlink ref="A121" r:id="rId114"/>
-    <hyperlink ref="A122" r:id="rId115"/>
-    <hyperlink ref="A123" r:id="rId116"/>
-    <hyperlink ref="A124" r:id="rId117"/>
-    <hyperlink ref="A125" r:id="rId118"/>
-    <hyperlink ref="A126" r:id="rId119"/>
-    <hyperlink ref="A127" r:id="rId120"/>
-    <hyperlink ref="A128" r:id="rId121"/>
-    <hyperlink ref="A129" r:id="rId122"/>
-    <hyperlink ref="A130" r:id="rId123"/>
-    <hyperlink ref="A131" r:id="rId124"/>
-    <hyperlink ref="A132" r:id="rId125"/>
-    <hyperlink ref="A133" r:id="rId126"/>
-    <hyperlink ref="A134" r:id="rId127"/>
-    <hyperlink ref="A135" r:id="rId128"/>
-    <hyperlink ref="A136" r:id="rId129"/>
-    <hyperlink ref="A137" r:id="rId130"/>
-    <hyperlink ref="A138" r:id="rId131"/>
-    <hyperlink ref="A139" r:id="rId132"/>
-    <hyperlink ref="A140" r:id="rId133"/>
-    <hyperlink ref="A141" r:id="rId134"/>
-    <hyperlink ref="A142" r:id="rId135"/>
-    <hyperlink ref="A143" r:id="rId136"/>
-    <hyperlink ref="A144" r:id="rId137"/>
-    <hyperlink ref="A145" r:id="rId138"/>
-    <hyperlink ref="A146" r:id="rId139"/>
-    <hyperlink ref="A147" r:id="rId140"/>
-    <hyperlink ref="A148" r:id="rId141"/>
-    <hyperlink ref="A149" r:id="rId142"/>
-    <hyperlink ref="A150" r:id="rId143"/>
-    <hyperlink ref="A151" r:id="rId144"/>
-    <hyperlink ref="A152" r:id="rId145"/>
-    <hyperlink ref="A153" r:id="rId146"/>
-    <hyperlink ref="A154" r:id="rId147"/>
-    <hyperlink ref="A156" r:id="rId148"/>
-    <hyperlink ref="A157" r:id="rId149"/>
-    <hyperlink ref="A158" r:id="rId150"/>
-    <hyperlink ref="A159" r:id="rId151"/>
-    <hyperlink ref="A160" r:id="rId152"/>
-    <hyperlink ref="A161" r:id="rId153"/>
-    <hyperlink ref="A162" r:id="rId154"/>
-    <hyperlink ref="A163" r:id="rId155"/>
-    <hyperlink ref="A164" r:id="rId156"/>
-    <hyperlink ref="A165" r:id="rId157"/>
-    <hyperlink ref="A166" r:id="rId158"/>
-    <hyperlink ref="A167" r:id="rId159"/>
-    <hyperlink ref="A168" r:id="rId160"/>
-    <hyperlink ref="A169" r:id="rId161"/>
-    <hyperlink ref="A172" r:id="rId162"/>
-    <hyperlink ref="A173" r:id="rId163"/>
-    <hyperlink ref="A174" r:id="rId164"/>
-    <hyperlink ref="A175" r:id="rId165"/>
-    <hyperlink ref="A176" r:id="rId166"/>
-    <hyperlink ref="A177" r:id="rId167"/>
-    <hyperlink ref="A178" r:id="rId168"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A29" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A31" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A32" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A33" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A34" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A36" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A37" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A38" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A39" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A40" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A41" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A42" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A43" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A44" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A45" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A46" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A47" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A48" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A49" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A50" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A51" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A52" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A53" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A54" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="A55" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A56" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A57" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A58" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A59" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="A60" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="A61" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="A62" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="A63" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="A64" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="A65" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="A67" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="A68" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="A69" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="A70" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="A71" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="A72" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="A73" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="A74" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="A75" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="A76" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="A77" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="A78" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="A79" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="A80" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="A81" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="A82" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="A83" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="A84" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="A85" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="A86" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="A87" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="A88" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="A89" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="A90" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="A91" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="A92" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="A93" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="A94" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="A95" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="A97" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="A99" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="A100" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="A101" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="A102" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="A103" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="A104" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="A105" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="A106" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="A107" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="A108" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="A109" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="A110" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="A111" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="A112" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="A113" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="A114" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="A115" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="A116" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="A117" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="A118" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="A119" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="A120" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="A121" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="A122" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="A123" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="A124" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="A125" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="A126" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="A127" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="A128" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="A129" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="A130" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="A131" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="A132" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="A133" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="A134" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="A135" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="A136" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="A137" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="A138" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="A139" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="A140" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="A141" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="A142" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="A143" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="A144" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="A145" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="A146" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="A147" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="A148" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="A149" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="A150" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="A151" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="A152" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="A153" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="A154" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="A156" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="A157" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="A158" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="A159" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="A160" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="A161" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="A162" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="A163" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="A164" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="A165" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="A166" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="A167" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="A168" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="A169" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="A172" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="A173" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="A174" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="A175" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="A176" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="A177" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="A178" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
